--- a/src/functionalTest/resources/CCD_HRS_v1.2-ITHC.xlsx
+++ b/src/functionalTest/resources/CCD_HRS_v1.2-ITHC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafadayican/hmcts/em/em-hrs-api/src/functionalTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9741C23-BD64-9D46-AEC7-B46F7222DDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DA90AB-F081-504D-8830-7F6DE5370CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" tabRatio="500" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="316">
   <si>
     <t>Change History</t>
   </si>
@@ -2312,7 +2312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -3373,24 +3373,14 @@
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24">
-        <v>44197</v>
-      </c>
+      <c r="A10" s="24"/>
       <c r="B10" s="55"/>
-      <c r="C10" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>79</v>
-      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="146" t="s">
-        <v>80</v>
-      </c>
+      <c r="F10" s="146"/>
       <c r="G10" s="55"/>
-      <c r="H10" s="63">
-        <v>8</v>
-      </c>
+      <c r="H10" s="63"/>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
     </row>
@@ -3820,7 +3810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -4077,24 +4067,14 @@
       <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24">
-        <v>44197</v>
-      </c>
+      <c r="A11" s="24"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>79</v>
-      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="47" t="s">
-        <v>80</v>
-      </c>
+      <c r="F11" s="47"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="63">
-        <v>9</v>
-      </c>
+      <c r="H11" s="63"/>
       <c r="I11" s="117"/>
       <c r="J11" s="55"/>
     </row>
